--- a/donnee.xlsx
+++ b/donnee.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melvy\Desktop\Application\Drive\HEIG_VD\4em semestre\SIO\SIO_Labo1_Herzig_Melvyn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE95A31-6161-41BE-A4E3-368B1B66CFC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEB5D1C-AED3-4CA3-87DB-548280B1BC0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BEB6CF7D-1294-4E18-A1A5-851671F59887}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{BEB6CF7D-1294-4E18-A1A5-851671F59887}"/>
   </bookViews>
   <sheets>
-    <sheet name="Général" sheetId="1" r:id="rId1"/>
-    <sheet name="Faible" sheetId="3" r:id="rId2"/>
-    <sheet name="Moyen" sheetId="4" r:id="rId3"/>
-    <sheet name="Dense" sheetId="2" r:id="rId4"/>
-    <sheet name="VLSI" sheetId="5" r:id="rId5"/>
+    <sheet name="Faible" sheetId="3" r:id="rId1"/>
+    <sheet name="Moyen" sheetId="4" r:id="rId2"/>
+    <sheet name="Dense" sheetId="2" r:id="rId3"/>
+    <sheet name="VLSI" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="29">
   <si>
     <t>Fichier</t>
   </si>
@@ -97,15 +96,6 @@
     <t>R8000_9</t>
   </si>
   <si>
-    <t>VLSI1</t>
-  </si>
-  <si>
-    <t>VLSI2</t>
-  </si>
-  <si>
-    <t>VLSI3</t>
-  </si>
-  <si>
     <t>densité</t>
   </si>
   <si>
@@ -149,36 +139,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,12 +159,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,7 +278,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Newest</c:v>
+                  <c:v>Oldest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -340,7 +302,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -418,19 +380,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>453</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -450,7 +412,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Oldest</c:v>
+                  <c:v>Newest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -474,7 +436,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -552,19 +514,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>229</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>449</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,7 +570,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -742,7 +704,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1254,7 +1216,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Newest</c:v>
+                  <c:v>Oldest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1278,7 +1240,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1356,19 +1318,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>296</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13373</c:v>
+                  <c:v>12133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3274</c:v>
+                  <c:v>5068</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24796</c:v>
+                  <c:v>22020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95884</c:v>
+                  <c:v>80182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,7 +1350,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Oldest</c:v>
+                  <c:v>Newest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1412,7 +1374,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1490,19 +1452,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>142</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4973</c:v>
+                  <c:v>6809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2872</c:v>
+                  <c:v>5170</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20677</c:v>
+                  <c:v>22694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71123</c:v>
+                  <c:v>89684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,7 +1508,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1624,19 +1586,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>367</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20702</c:v>
+                  <c:v>14450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4451</c:v>
+                  <c:v>6763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25725</c:v>
+                  <c:v>26143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81626</c:v>
+                  <c:v>88464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,7 +1642,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1758,19 +1720,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>688</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36679</c:v>
+                  <c:v>5974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10948</c:v>
+                  <c:v>7943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55963</c:v>
+                  <c:v>31107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>178290</c:v>
+                  <c:v>79007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,7 +2180,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Newest</c:v>
+                  <c:v>Oldest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2242,7 +2204,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -2320,19 +2282,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>136</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>265</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>509</c:v>
+                  <c:v>542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1007</c:v>
+                  <c:v>1059</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1992</c:v>
+                  <c:v>2107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,7 +2314,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Oldest</c:v>
+                  <c:v>Newest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2376,7 +2338,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -2454,19 +2416,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>278</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>542</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1059</c:v>
+                  <c:v>1007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2107</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,7 +2472,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -2644,7 +2606,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3146,7 +3108,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Newest</c:v>
+                  <c:v>Oldest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3170,7 +3132,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3248,19 +3210,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1193</c:v>
+                  <c:v>994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7446</c:v>
+                  <c:v>7251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17465</c:v>
+                  <c:v>24878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63532</c:v>
+                  <c:v>51921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>339316</c:v>
+                  <c:v>274455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3280,7 +3242,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Oldest</c:v>
+                  <c:v>Newest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3304,7 +3266,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3382,19 +3344,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>658</c:v>
+                  <c:v>634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7251</c:v>
+                  <c:v>5841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15095</c:v>
+                  <c:v>34349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56660</c:v>
+                  <c:v>70615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>296258</c:v>
+                  <c:v>280307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3438,7 +3400,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3516,19 +3478,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1112</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12301</c:v>
+                  <c:v>10233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21710</c:v>
+                  <c:v>35251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83230</c:v>
+                  <c:v>87912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>381862</c:v>
+                  <c:v>358025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3572,7 +3534,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3650,19 +3612,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1459</c:v>
+                  <c:v>918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14244</c:v>
+                  <c:v>7084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23986</c:v>
+                  <c:v>28351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100810</c:v>
+                  <c:v>74727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>440797</c:v>
+                  <c:v>311940</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4080,7 +4042,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Newest</c:v>
+                  <c:v>Oldest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4104,7 +4066,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -4182,19 +4144,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>322</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>628</c:v>
+                  <c:v>609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1250</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2496</c:v>
+                  <c:v>2430</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4990</c:v>
+                  <c:v>4842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4214,7 +4176,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Oldest</c:v>
+                  <c:v>Newest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4238,7 +4200,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -4316,19 +4278,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>316</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>609</c:v>
+                  <c:v>628</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1221</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2430</c:v>
+                  <c:v>2496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4842</c:v>
+                  <c:v>4990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4372,7 +4334,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -4506,7 +4468,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -5014,7 +4976,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Newest</c:v>
+                  <c:v>Oldest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5038,7 +5000,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -5116,19 +5078,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1879</c:v>
+                  <c:v>1542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13012</c:v>
+                  <c:v>13800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23009</c:v>
+                  <c:v>42683</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107826</c:v>
+                  <c:v>106018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>520547</c:v>
+                  <c:v>440561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5148,7 +5110,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Oldest</c:v>
+                  <c:v>Newest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5172,7 +5134,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -5250,19 +5212,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1196</c:v>
+                  <c:v>1756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9328</c:v>
+                  <c:v>10519</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19108</c:v>
+                  <c:v>35197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85942</c:v>
+                  <c:v>108496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>589148</c:v>
+                  <c:v>465312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5306,7 +5268,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -5384,19 +5346,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2461</c:v>
+                  <c:v>2769</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17429</c:v>
+                  <c:v>15483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36659</c:v>
+                  <c:v>64440</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157525</c:v>
+                  <c:v>160128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>735469</c:v>
+                  <c:v>660064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5440,7 +5402,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -5518,19 +5480,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2602</c:v>
+                  <c:v>2166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15662</c:v>
+                  <c:v>15625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38550</c:v>
+                  <c:v>45909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>162383</c:v>
+                  <c:v>126332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>717672</c:v>
+                  <c:v>559490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5942,7 +5904,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Newest</c:v>
+                  <c:v>Oldest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5966,7 +5928,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -6038,13 +6000,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>326976</c:v>
+                  <c:v>288493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445647</c:v>
+                  <c:v>476512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1002595</c:v>
+                  <c:v>1062705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6064,7 +6026,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Oldest</c:v>
+                  <c:v>Newest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6088,7 +6050,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -6160,13 +6122,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>293589</c:v>
+                  <c:v>286496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>426262</c:v>
+                  <c:v>577097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>946691</c:v>
+                  <c:v>1175533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6210,7 +6172,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -6282,13 +6244,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>404836</c:v>
+                  <c:v>386036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>644554</c:v>
+                  <c:v>645930</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1360866</c:v>
+                  <c:v>1539693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6332,7 +6294,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -6404,13 +6366,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>834784</c:v>
+                  <c:v>352974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>871323</c:v>
+                  <c:v>587338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3499568</c:v>
+                  <c:v>1283745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6822,7 +6784,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Newest</c:v>
+                  <c:v>Oldest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6918,13 +6880,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1412</c:v>
+                  <c:v>1437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1546</c:v>
+                  <c:v>1602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2411</c:v>
+                  <c:v>2485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6944,7 +6906,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Oldest</c:v>
+                  <c:v>Newest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7040,13 +7002,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1437</c:v>
+                  <c:v>1412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1602</c:v>
+                  <c:v>1546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2485</c:v>
+                  <c:v>2411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12555,918 +12517,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EAAABE-0E17-4D33-ABB6-C94FBB621738}">
-  <dimension ref="C5:T29"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3">
-        <v>500</v>
-      </c>
-      <c r="E7" s="3">
-        <v>12481</v>
-      </c>
-      <c r="F7" s="3">
-        <v>79</v>
-      </c>
-      <c r="H7" s="3">
-        <f xml:space="preserve"> (2*E7)/(D7*(D7-1))</f>
-        <v>0.10004809619238476</v>
-      </c>
-      <c r="J7" s="3">
-        <v>296</v>
-      </c>
-      <c r="K7" s="3">
-        <v>36</v>
-      </c>
-      <c r="M7" s="3">
-        <v>142</v>
-      </c>
-      <c r="N7" s="3">
-        <v>33</v>
-      </c>
-      <c r="P7" s="3">
-        <v>367</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>35</v>
-      </c>
-      <c r="S7" s="3">
-        <v>688</v>
-      </c>
-      <c r="T7" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="3:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
-        <v>500</v>
-      </c>
-      <c r="E8" s="2">
-        <v>62366</v>
-      </c>
-      <c r="F8" s="2">
-        <v>391</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" ref="H8:H15" si="0" xml:space="preserve"> (2*E8)/(D8*(D8-1))</f>
-        <v>0.49992785571142284</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1193</v>
-      </c>
-      <c r="K8" s="2">
-        <v>136</v>
-      </c>
-      <c r="M8" s="2">
-        <v>658</v>
-      </c>
-      <c r="N8" s="2">
-        <v>140</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1112</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>142</v>
-      </c>
-      <c r="S8" s="2">
-        <v>1459</v>
-      </c>
-      <c r="T8" s="2">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="3:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1">
-        <v>500</v>
-      </c>
-      <c r="E9" s="1">
-        <v>112302</v>
-      </c>
-      <c r="F9" s="1">
-        <v>499</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9002164328657315</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1879</v>
-      </c>
-      <c r="K9" s="1">
-        <v>322</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1196</v>
-      </c>
-      <c r="N9" s="1">
-        <v>316</v>
-      </c>
-      <c r="P9" s="1">
-        <v>2461</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>316</v>
-      </c>
-      <c r="S9" s="1">
-        <v>2602</v>
-      </c>
-      <c r="T9" s="1">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="3:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>49980</v>
-      </c>
-      <c r="F10" s="3">
-        <v>138</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.10006006006006006</v>
-      </c>
-      <c r="J10" s="3">
-        <v>13373</v>
-      </c>
-      <c r="K10" s="3">
-        <v>68</v>
-      </c>
-      <c r="M10" s="3">
-        <v>4973</v>
-      </c>
-      <c r="N10" s="3">
-        <v>58</v>
-      </c>
-      <c r="P10" s="3">
-        <v>20702</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>67</v>
-      </c>
-      <c r="S10" s="3">
-        <v>36679</v>
-      </c>
-      <c r="T10" s="3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="3:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>249863</v>
-      </c>
-      <c r="F11" s="2">
-        <v>807</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.50022622622622626</v>
-      </c>
-      <c r="J11" s="2">
-        <v>7446</v>
-      </c>
-      <c r="K11" s="2">
-        <v>265</v>
-      </c>
-      <c r="M11" s="2">
-        <v>7251</v>
-      </c>
-      <c r="N11" s="2">
-        <v>278</v>
-      </c>
-      <c r="P11" s="2">
-        <v>12301</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>281</v>
-      </c>
-      <c r="S11" s="2">
-        <v>14244</v>
-      </c>
-      <c r="T11" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="3:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>449626</v>
-      </c>
-      <c r="F12" s="1">
-        <v>999</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.90015215215215216</v>
-      </c>
-      <c r="J12" s="1">
-        <v>13012</v>
-      </c>
-      <c r="K12" s="1">
-        <v>628</v>
-      </c>
-      <c r="M12" s="1">
-        <v>9328</v>
-      </c>
-      <c r="N12" s="1">
-        <v>609</v>
-      </c>
-      <c r="P12" s="1">
-        <v>17429</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>609</v>
-      </c>
-      <c r="S12" s="1">
-        <v>15662</v>
-      </c>
-      <c r="T12" s="1">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="13" spans="3:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>200053</v>
-      </c>
-      <c r="F13" s="3">
-        <v>268</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.10007653826913457</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3274</v>
-      </c>
-      <c r="K13" s="3">
-        <v>126</v>
-      </c>
-      <c r="M13" s="3">
-        <v>2872</v>
-      </c>
-      <c r="N13" s="3">
-        <v>112</v>
-      </c>
-      <c r="P13" s="3">
-        <v>4451</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>128</v>
-      </c>
-      <c r="S13" s="3">
-        <v>10948</v>
-      </c>
-      <c r="T13" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="3:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E14" s="2">
-        <v>999515</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1625</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.50000750375187597</v>
-      </c>
-      <c r="J14" s="2">
-        <v>17465</v>
-      </c>
-      <c r="K14" s="2">
-        <v>509</v>
-      </c>
-      <c r="M14" s="2">
-        <v>15095</v>
-      </c>
-      <c r="N14" s="2">
-        <v>542</v>
-      </c>
-      <c r="P14" s="2">
-        <v>21710</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>544</v>
-      </c>
-      <c r="S14" s="2">
-        <v>23986</v>
-      </c>
-      <c r="T14" s="2">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="15" spans="3:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1799047</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1999</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89997348674337163</v>
-      </c>
-      <c r="J15" s="1">
-        <v>23009</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1250</v>
-      </c>
-      <c r="M15" s="1">
-        <v>19108</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1221</v>
-      </c>
-      <c r="P15" s="1">
-        <v>36659</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>1221</v>
-      </c>
-      <c r="S15" s="1">
-        <v>38550</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="16" spans="3:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E16" s="3">
-        <v>800073</v>
-      </c>
-      <c r="F16" s="3">
-        <v>509</v>
-      </c>
-      <c r="H16" s="3">
-        <f>(2*E16)/(D16*(D16-1))</f>
-        <v>0.10003413353338335</v>
-      </c>
-      <c r="J16" s="3">
-        <v>24796</v>
-      </c>
-      <c r="K16" s="3">
-        <v>225</v>
-      </c>
-      <c r="M16" s="3">
-        <v>20677</v>
-      </c>
-      <c r="N16" s="3">
-        <v>229</v>
-      </c>
-      <c r="P16" s="3">
-        <v>25725</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>248</v>
-      </c>
-      <c r="S16" s="3">
-        <v>55963</v>
-      </c>
-      <c r="T16" s="3">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3998358</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3278</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" ref="H17:H21" si="1">(2*E17)/(D17*(D17-1))</f>
-        <v>0.49991972993248313</v>
-      </c>
-      <c r="J17" s="2">
-        <v>63532</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1007</v>
-      </c>
-      <c r="M17" s="2">
-        <v>56660</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1059</v>
-      </c>
-      <c r="P17" s="2">
-        <v>83230</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>1061</v>
-      </c>
-      <c r="S17" s="2">
-        <v>100810</v>
-      </c>
-      <c r="T17" s="2">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7199158</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3999</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="1"/>
-        <v>0.90011977994498626</v>
-      </c>
-      <c r="J18" s="1">
-        <v>107826</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2496</v>
-      </c>
-      <c r="M18" s="1">
-        <v>85942</v>
-      </c>
-      <c r="N18" s="1">
-        <v>2430</v>
-      </c>
-      <c r="P18" s="1">
-        <v>157525</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>2430</v>
-      </c>
-      <c r="S18" s="1">
-        <v>162383</v>
-      </c>
-      <c r="T18" s="1">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3">
-        <v>8000</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3199456</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1023</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="1"/>
-        <v>9.9995499437429677E-2</v>
-      </c>
-      <c r="J19" s="3">
-        <v>95884</v>
-      </c>
-      <c r="K19" s="3">
-        <v>453</v>
-      </c>
-      <c r="M19" s="3">
-        <v>71123</v>
-      </c>
-      <c r="N19" s="3">
-        <v>449</v>
-      </c>
-      <c r="P19" s="3">
-        <v>81626</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>465</v>
-      </c>
-      <c r="S19" s="3">
-        <v>178290</v>
-      </c>
-      <c r="T19" s="3">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="20" spans="3:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2">
-        <v>8000</v>
-      </c>
-      <c r="E20" s="2">
-        <v>15994563</v>
-      </c>
-      <c r="F20" s="2">
-        <v>6458</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.4998925803225403</v>
-      </c>
-      <c r="J20" s="2">
-        <v>339316</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1992</v>
-      </c>
-      <c r="M20" s="2">
-        <v>296258</v>
-      </c>
-      <c r="N20" s="2">
-        <v>2107</v>
-      </c>
-      <c r="P20" s="2">
-        <v>381862</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>2117</v>
-      </c>
-      <c r="S20" s="2">
-        <v>440797</v>
-      </c>
-      <c r="T20" s="2">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>28805651</v>
-      </c>
-      <c r="F21" s="1">
-        <v>7999</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>0.90028912989123644</v>
-      </c>
-      <c r="J21" s="1">
-        <v>520547</v>
-      </c>
-      <c r="K21" s="1">
-        <v>4990</v>
-      </c>
-      <c r="M21" s="1">
-        <v>589148</v>
-      </c>
-      <c r="N21" s="1">
-        <v>4842</v>
-      </c>
-      <c r="P21" s="1">
-        <v>735469</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>4842</v>
-      </c>
-      <c r="S21" s="1">
-        <v>717672</v>
-      </c>
-      <c r="T21" s="1">
-        <v>4842</v>
-      </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26" t="s">
-        <v>26</v>
-      </c>
-      <c r="T26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="4">
-        <v>17845</v>
-      </c>
-      <c r="E27" s="4">
-        <v>26171065</v>
-      </c>
-      <c r="F27" s="4">
-        <v>4039</v>
-      </c>
-      <c r="H27" s="4">
-        <f>(2*E27)/(D27*(D27-1))</f>
-        <v>0.16437759608836183</v>
-      </c>
-      <c r="J27" s="4">
-        <v>326976</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1412</v>
-      </c>
-      <c r="M27" s="4">
-        <v>293589</v>
-      </c>
-      <c r="N27" s="4">
-        <v>1437</v>
-      </c>
-      <c r="P27" s="4">
-        <v>404836</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>1396</v>
-      </c>
-      <c r="S27" s="4">
-        <v>834784</v>
-      </c>
-      <c r="T27" s="4">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="4">
-        <v>29514</v>
-      </c>
-      <c r="E28" s="4">
-        <v>42000902</v>
-      </c>
-      <c r="F28" s="4">
-        <v>3858</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" ref="H28:H29" si="2">(2*E28)/(D28*(D28-1))</f>
-        <v>9.6437775076674934E-2</v>
-      </c>
-      <c r="J28" s="4">
-        <v>445647</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1546</v>
-      </c>
-      <c r="M28" s="4">
-        <v>426262</v>
-      </c>
-      <c r="N28" s="4">
-        <v>1602</v>
-      </c>
-      <c r="P28" s="4">
-        <v>644554</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>1586</v>
-      </c>
-      <c r="S28" s="4">
-        <v>871323</v>
-      </c>
-      <c r="T28" s="4">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="29" spans="3:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="4">
-        <v>38478</v>
-      </c>
-      <c r="E29" s="4">
-        <v>89635719</v>
-      </c>
-      <c r="F29" s="4">
-        <v>6827</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="2"/>
-        <v>0.12108696906993241</v>
-      </c>
-      <c r="J29" s="4">
-        <v>1002595</v>
-      </c>
-      <c r="K29" s="4">
-        <v>2411</v>
-      </c>
-      <c r="M29" s="4">
-        <v>946691</v>
-      </c>
-      <c r="N29" s="4">
-        <v>2485</v>
-      </c>
-      <c r="P29" s="4">
-        <v>1360866</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>2500</v>
-      </c>
-      <c r="S29" s="4">
-        <v>3499568</v>
-      </c>
-      <c r="T29" s="4">
-        <v>2473</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BCBC6C-93F1-4AFD-9308-B1C1961DDAFA}">
   <dimension ref="C6:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="D2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
@@ -13483,31 +12566,31 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" t="s">
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="s">
+      <c r="T7" t="s">
         <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
@@ -13528,25 +12611,25 @@
         <v>0.10004809619238476</v>
       </c>
       <c r="J8">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="K8">
+        <v>33</v>
+      </c>
+      <c r="M8">
+        <v>184</v>
+      </c>
+      <c r="N8">
         <v>36</v>
       </c>
-      <c r="M8">
-        <v>142</v>
-      </c>
-      <c r="N8">
-        <v>33</v>
-      </c>
       <c r="P8">
-        <v>367</v>
+        <v>532</v>
       </c>
       <c r="Q8">
         <v>35</v>
       </c>
       <c r="S8">
-        <v>688</v>
+        <v>321</v>
       </c>
       <c r="T8">
         <v>32</v>
@@ -13570,25 +12653,25 @@
         <v>0.10006006006006006</v>
       </c>
       <c r="J9">
-        <v>13373</v>
+        <v>12133</v>
       </c>
       <c r="K9">
+        <v>58</v>
+      </c>
+      <c r="M9">
+        <v>6809</v>
+      </c>
+      <c r="N9">
         <v>68</v>
       </c>
-      <c r="M9">
-        <v>4973</v>
-      </c>
-      <c r="N9">
-        <v>58</v>
-      </c>
       <c r="P9">
-        <v>20702</v>
+        <v>14450</v>
       </c>
       <c r="Q9">
         <v>67</v>
       </c>
       <c r="S9">
-        <v>36679</v>
+        <v>5974</v>
       </c>
       <c r="T9">
         <v>58</v>
@@ -13612,25 +12695,25 @@
         <v>0.10007653826913457</v>
       </c>
       <c r="J10">
-        <v>3274</v>
+        <v>5068</v>
       </c>
       <c r="K10">
+        <v>112</v>
+      </c>
+      <c r="M10">
+        <v>5170</v>
+      </c>
+      <c r="N10">
         <v>126</v>
       </c>
-      <c r="M10">
-        <v>2872</v>
-      </c>
-      <c r="N10">
-        <v>112</v>
-      </c>
       <c r="P10">
-        <v>4451</v>
+        <v>6763</v>
       </c>
       <c r="Q10">
         <v>128</v>
       </c>
       <c r="S10">
-        <v>10948</v>
+        <v>7943</v>
       </c>
       <c r="T10">
         <v>111</v>
@@ -13654,25 +12737,25 @@
         <v>0.10003413353338335</v>
       </c>
       <c r="J11">
-        <v>24796</v>
+        <v>22020</v>
       </c>
       <c r="K11">
+        <v>229</v>
+      </c>
+      <c r="M11">
+        <v>22694</v>
+      </c>
+      <c r="N11">
         <v>225</v>
       </c>
-      <c r="M11">
-        <v>20677</v>
-      </c>
-      <c r="N11">
-        <v>229</v>
-      </c>
       <c r="P11">
-        <v>25725</v>
+        <v>26143</v>
       </c>
       <c r="Q11">
         <v>248</v>
       </c>
       <c r="S11">
-        <v>55963</v>
+        <v>31107</v>
       </c>
       <c r="T11">
         <v>231</v>
@@ -13696,28 +12779,321 @@
         <v>9.9995499437429677E-2</v>
       </c>
       <c r="J12">
-        <v>95884</v>
+        <v>80182</v>
       </c>
       <c r="K12">
+        <v>449</v>
+      </c>
+      <c r="M12">
+        <v>89684</v>
+      </c>
+      <c r="N12">
         <v>453</v>
       </c>
-      <c r="M12">
-        <v>71123</v>
-      </c>
-      <c r="N12">
-        <v>449</v>
-      </c>
       <c r="P12">
-        <v>81626</v>
+        <v>88464</v>
       </c>
       <c r="Q12">
         <v>465</v>
       </c>
       <c r="S12">
-        <v>178290</v>
+        <v>79007</v>
       </c>
       <c r="T12">
         <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BFB395-7B34-4E93-93A5-9F12E6499F31}">
+  <dimension ref="C6:T12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>62366</v>
+      </c>
+      <c r="F8">
+        <v>391</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H10" si="0" xml:space="preserve"> (2*E8)/(D8*(D8-1))</f>
+        <v>0.49992785571142284</v>
+      </c>
+      <c r="J8">
+        <v>994</v>
+      </c>
+      <c r="K8">
+        <v>140</v>
+      </c>
+      <c r="M8">
+        <v>634</v>
+      </c>
+      <c r="N8">
+        <v>136</v>
+      </c>
+      <c r="P8">
+        <v>1120</v>
+      </c>
+      <c r="Q8">
+        <v>142</v>
+      </c>
+      <c r="S8">
+        <v>918</v>
+      </c>
+      <c r="T8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>249863</v>
+      </c>
+      <c r="F9">
+        <v>807</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.50022622622622626</v>
+      </c>
+      <c r="J9">
+        <v>7251</v>
+      </c>
+      <c r="K9">
+        <v>278</v>
+      </c>
+      <c r="M9">
+        <v>5841</v>
+      </c>
+      <c r="N9">
+        <v>265</v>
+      </c>
+      <c r="P9">
+        <v>10233</v>
+      </c>
+      <c r="Q9">
+        <v>281</v>
+      </c>
+      <c r="S9">
+        <v>7084</v>
+      </c>
+      <c r="T9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+      <c r="E10">
+        <v>999515</v>
+      </c>
+      <c r="F10">
+        <v>1625</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.50000750375187597</v>
+      </c>
+      <c r="J10">
+        <v>24878</v>
+      </c>
+      <c r="K10">
+        <v>542</v>
+      </c>
+      <c r="M10">
+        <v>34349</v>
+      </c>
+      <c r="N10">
+        <v>509</v>
+      </c>
+      <c r="P10">
+        <v>35251</v>
+      </c>
+      <c r="Q10">
+        <v>544</v>
+      </c>
+      <c r="S10">
+        <v>28351</v>
+      </c>
+      <c r="T10">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>4000</v>
+      </c>
+      <c r="E11">
+        <v>3998358</v>
+      </c>
+      <c r="F11">
+        <v>3278</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H12" si="1">(2*E11)/(D11*(D11-1))</f>
+        <v>0.49991972993248313</v>
+      </c>
+      <c r="J11">
+        <v>51921</v>
+      </c>
+      <c r="K11">
+        <v>1059</v>
+      </c>
+      <c r="M11">
+        <v>70615</v>
+      </c>
+      <c r="N11">
+        <v>1007</v>
+      </c>
+      <c r="P11">
+        <v>87912</v>
+      </c>
+      <c r="Q11">
+        <v>1061</v>
+      </c>
+      <c r="S11">
+        <v>74727</v>
+      </c>
+      <c r="T11">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>8000</v>
+      </c>
+      <c r="E12">
+        <v>15994563</v>
+      </c>
+      <c r="F12">
+        <v>6458</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.4998925803225403</v>
+      </c>
+      <c r="J12">
+        <v>274455</v>
+      </c>
+      <c r="K12">
+        <v>2107</v>
+      </c>
+      <c r="M12">
+        <v>280307</v>
+      </c>
+      <c r="N12">
+        <v>1992</v>
+      </c>
+      <c r="P12">
+        <v>358025</v>
+      </c>
+      <c r="Q12">
+        <v>2117</v>
+      </c>
+      <c r="S12">
+        <v>311940</v>
+      </c>
+      <c r="T12">
+        <v>2078</v>
       </c>
     </row>
   </sheetData>
@@ -13727,39 +13103,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BFB395-7B34-4E93-93A5-9F12E6499F31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273BD2AF-2C65-4745-A633-76A3E770ADCA}">
   <dimension ref="C6:T12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="D4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
@@ -13776,241 +13152,241 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" t="s">
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="s">
+      <c r="T7" t="s">
         <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>500</v>
       </c>
       <c r="E8">
-        <v>62366</v>
+        <v>112302</v>
       </c>
       <c r="F8">
-        <v>391</v>
+        <v>499</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H10" si="0" xml:space="preserve"> (2*E8)/(D8*(D8-1))</f>
-        <v>0.49992785571142284</v>
+        <v>0.9002164328657315</v>
       </c>
       <c r="J8">
-        <v>1193</v>
+        <v>1542</v>
       </c>
       <c r="K8">
-        <v>136</v>
+        <v>316</v>
       </c>
       <c r="M8">
-        <v>658</v>
+        <v>1756</v>
       </c>
       <c r="N8">
-        <v>140</v>
+        <v>322</v>
       </c>
       <c r="P8">
-        <v>1112</v>
+        <v>2769</v>
       </c>
       <c r="Q8">
-        <v>142</v>
+        <v>316</v>
       </c>
       <c r="S8">
-        <v>1459</v>
+        <v>2166</v>
       </c>
       <c r="T8">
-        <v>137</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>1000</v>
       </c>
       <c r="E9">
-        <v>249863</v>
+        <v>449626</v>
       </c>
       <c r="F9">
-        <v>807</v>
+        <v>999</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.50022622622622626</v>
+        <v>0.90015215215215216</v>
       </c>
       <c r="J9">
-        <v>7446</v>
+        <v>13800</v>
       </c>
       <c r="K9">
-        <v>265</v>
+        <v>609</v>
       </c>
       <c r="M9">
-        <v>7251</v>
+        <v>10519</v>
       </c>
       <c r="N9">
-        <v>278</v>
+        <v>628</v>
       </c>
       <c r="P9">
-        <v>12301</v>
+        <v>15483</v>
       </c>
       <c r="Q9">
-        <v>281</v>
+        <v>609</v>
       </c>
       <c r="S9">
-        <v>14244</v>
+        <v>15625</v>
       </c>
       <c r="T9">
-        <v>270</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>2000</v>
       </c>
       <c r="E10">
-        <v>999515</v>
+        <v>1799047</v>
       </c>
       <c r="F10">
-        <v>1625</v>
+        <v>1999</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.50000750375187597</v>
+        <v>0.89997348674337163</v>
       </c>
       <c r="J10">
-        <v>17465</v>
+        <v>42683</v>
       </c>
       <c r="K10">
-        <v>509</v>
+        <v>1221</v>
       </c>
       <c r="M10">
-        <v>15095</v>
+        <v>35197</v>
       </c>
       <c r="N10">
-        <v>542</v>
+        <v>1250</v>
       </c>
       <c r="P10">
-        <v>21710</v>
+        <v>64440</v>
       </c>
       <c r="Q10">
-        <v>544</v>
+        <v>1221</v>
       </c>
       <c r="S10">
-        <v>23986</v>
+        <v>45909</v>
       </c>
       <c r="T10">
-        <v>526</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>4000</v>
       </c>
       <c r="E11">
-        <v>3998358</v>
+        <v>7199158</v>
       </c>
       <c r="F11">
-        <v>3278</v>
+        <v>3999</v>
       </c>
       <c r="H11">
         <f t="shared" ref="H11:H12" si="1">(2*E11)/(D11*(D11-1))</f>
-        <v>0.49991972993248313</v>
+        <v>0.90011977994498626</v>
       </c>
       <c r="J11">
-        <v>63532</v>
+        <v>106018</v>
       </c>
       <c r="K11">
-        <v>1007</v>
+        <v>2430</v>
       </c>
       <c r="M11">
-        <v>56660</v>
+        <v>108496</v>
       </c>
       <c r="N11">
-        <v>1059</v>
+        <v>2496</v>
       </c>
       <c r="P11">
-        <v>83230</v>
+        <v>160128</v>
       </c>
       <c r="Q11">
-        <v>1061</v>
+        <v>2430</v>
       </c>
       <c r="S11">
-        <v>100810</v>
+        <v>126332</v>
       </c>
       <c r="T11">
-        <v>1039</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>8000</v>
       </c>
       <c r="E12">
-        <v>15994563</v>
+        <v>28805651</v>
       </c>
       <c r="F12">
-        <v>6458</v>
+        <v>7999</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.4998925803225403</v>
+        <v>0.90028912989123644</v>
       </c>
       <c r="J12">
-        <v>339316</v>
+        <v>440561</v>
       </c>
       <c r="K12">
-        <v>1992</v>
+        <v>4842</v>
       </c>
       <c r="M12">
-        <v>296258</v>
+        <v>465312</v>
       </c>
       <c r="N12">
-        <v>2107</v>
+        <v>4990</v>
       </c>
       <c r="P12">
-        <v>381862</v>
+        <v>660064</v>
       </c>
       <c r="Q12">
-        <v>2117</v>
+        <v>4842</v>
       </c>
       <c r="S12">
-        <v>440797</v>
+        <v>559490</v>
       </c>
       <c r="T12">
-        <v>2078</v>
+        <v>4842</v>
       </c>
     </row>
   </sheetData>
@@ -14020,39 +13396,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273BD2AF-2C65-4745-A633-76A3E770ADCA}">
-  <dimension ref="C6:T12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43554CB2-82C2-470A-8BD7-8E2ED874ADF5}">
+  <dimension ref="C6:T10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
@@ -14069,413 +13445,120 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" t="s">
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="s">
+      <c r="T7" t="s">
         <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>500</v>
+        <v>17845</v>
       </c>
       <c r="E8">
-        <v>112302</v>
+        <v>26171065</v>
       </c>
       <c r="F8">
-        <v>499</v>
+        <v>4039</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H10" si="0" xml:space="preserve"> (2*E8)/(D8*(D8-1))</f>
-        <v>0.9002164328657315</v>
+        <f>(2*E8)/(D8*(D8-1))</f>
+        <v>0.16437759608836183</v>
       </c>
       <c r="J8">
-        <v>1879</v>
+        <v>288493</v>
       </c>
       <c r="K8">
-        <v>322</v>
+        <v>1437</v>
       </c>
       <c r="M8">
-        <v>1196</v>
+        <v>286496</v>
       </c>
       <c r="N8">
-        <v>316</v>
+        <v>1412</v>
       </c>
       <c r="P8">
-        <v>2461</v>
+        <v>386036</v>
       </c>
       <c r="Q8">
-        <v>316</v>
+        <v>1396</v>
       </c>
       <c r="S8">
-        <v>2602</v>
+        <v>352974</v>
       </c>
       <c r="T8">
-        <v>316</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>29514</v>
       </c>
       <c r="E9">
-        <v>449626</v>
+        <v>42000902</v>
       </c>
       <c r="F9">
-        <v>999</v>
+        <v>3858</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0.90015215215215216</v>
+        <f t="shared" ref="H9:H10" si="0">(2*E9)/(D9*(D9-1))</f>
+        <v>9.6437775076674934E-2</v>
       </c>
       <c r="J9">
-        <v>13012</v>
+        <v>476512</v>
       </c>
       <c r="K9">
-        <v>628</v>
+        <v>1602</v>
       </c>
       <c r="M9">
-        <v>9328</v>
+        <v>577097</v>
       </c>
       <c r="N9">
-        <v>609</v>
+        <v>1546</v>
       </c>
       <c r="P9">
-        <v>17429</v>
+        <v>645930</v>
       </c>
       <c r="Q9">
-        <v>609</v>
+        <v>1586</v>
       </c>
       <c r="S9">
-        <v>15662</v>
+        <v>587338</v>
       </c>
       <c r="T9">
-        <v>609</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>2000</v>
-      </c>
-      <c r="E10">
-        <v>1799047</v>
-      </c>
-      <c r="F10">
-        <v>1999</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0.89997348674337163</v>
-      </c>
-      <c r="J10">
-        <v>23009</v>
-      </c>
-      <c r="K10">
-        <v>1250</v>
-      </c>
-      <c r="M10">
-        <v>19108</v>
-      </c>
-      <c r="N10">
-        <v>1221</v>
-      </c>
-      <c r="P10">
-        <v>36659</v>
-      </c>
-      <c r="Q10">
-        <v>1221</v>
-      </c>
-      <c r="S10">
-        <v>38550</v>
-      </c>
-      <c r="T10">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>4000</v>
-      </c>
-      <c r="E11">
-        <v>7199158</v>
-      </c>
-      <c r="F11">
-        <v>3999</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ref="H11:H12" si="1">(2*E11)/(D11*(D11-1))</f>
-        <v>0.90011977994498626</v>
-      </c>
-      <c r="J11">
-        <v>107826</v>
-      </c>
-      <c r="K11">
-        <v>2496</v>
-      </c>
-      <c r="M11">
-        <v>85942</v>
-      </c>
-      <c r="N11">
-        <v>2430</v>
-      </c>
-      <c r="P11">
-        <v>157525</v>
-      </c>
-      <c r="Q11">
-        <v>2430</v>
-      </c>
-      <c r="S11">
-        <v>162383</v>
-      </c>
-      <c r="T11">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>8000</v>
-      </c>
-      <c r="E12">
-        <v>28805651</v>
-      </c>
-      <c r="F12">
-        <v>7999</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0.90028912989123644</v>
-      </c>
-      <c r="J12">
-        <v>520547</v>
-      </c>
-      <c r="K12">
-        <v>4990</v>
-      </c>
-      <c r="M12">
-        <v>589148</v>
-      </c>
-      <c r="N12">
-        <v>4842</v>
-      </c>
-      <c r="P12">
-        <v>735469</v>
-      </c>
-      <c r="Q12">
-        <v>4842</v>
-      </c>
-      <c r="S12">
-        <v>717672</v>
-      </c>
-      <c r="T12">
-        <v>4842</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43554CB2-82C2-470A-8BD7-8E2ED874ADF5}">
-  <dimension ref="C6:T10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
         <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>17845</v>
-      </c>
-      <c r="E8">
-        <v>26171065</v>
-      </c>
-      <c r="F8">
-        <v>4039</v>
-      </c>
-      <c r="H8">
-        <f>(2*E8)/(D8*(D8-1))</f>
-        <v>0.16437759608836183</v>
-      </c>
-      <c r="J8">
-        <v>326976</v>
-      </c>
-      <c r="K8">
-        <v>1412</v>
-      </c>
-      <c r="M8">
-        <v>293589</v>
-      </c>
-      <c r="N8">
-        <v>1437</v>
-      </c>
-      <c r="P8">
-        <v>404836</v>
-      </c>
-      <c r="Q8">
-        <v>1396</v>
-      </c>
-      <c r="S8">
-        <v>834784</v>
-      </c>
-      <c r="T8">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>29514</v>
-      </c>
-      <c r="E9">
-        <v>42000902</v>
-      </c>
-      <c r="F9">
-        <v>3858</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ref="H9:H10" si="0">(2*E9)/(D9*(D9-1))</f>
-        <v>9.6437775076674934E-2</v>
-      </c>
-      <c r="J9">
-        <v>445647</v>
-      </c>
-      <c r="K9">
-        <v>1546</v>
-      </c>
-      <c r="M9">
-        <v>426262</v>
-      </c>
-      <c r="N9">
-        <v>1602</v>
-      </c>
-      <c r="P9">
-        <v>644554</v>
-      </c>
-      <c r="Q9">
-        <v>1586</v>
-      </c>
-      <c r="S9">
-        <v>871323</v>
-      </c>
-      <c r="T9">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>31</v>
       </c>
       <c r="D10">
         <v>38478</v>
@@ -14491,25 +13574,25 @@
         <v>0.12108696906993241</v>
       </c>
       <c r="J10">
-        <v>1002595</v>
+        <v>1062705</v>
       </c>
       <c r="K10">
+        <v>2485</v>
+      </c>
+      <c r="M10">
+        <v>1175533</v>
+      </c>
+      <c r="N10">
         <v>2411</v>
       </c>
-      <c r="M10">
-        <v>946691</v>
-      </c>
-      <c r="N10">
-        <v>2485</v>
-      </c>
       <c r="P10">
-        <v>1360866</v>
+        <v>1539693</v>
       </c>
       <c r="Q10">
         <v>2500</v>
       </c>
       <c r="S10">
-        <v>3499568</v>
+        <v>1283745</v>
       </c>
       <c r="T10">
         <v>2473</v>

--- a/donnee.xlsx
+++ b/donnee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melvy\Desktop\Application\Drive\HEIG_VD\4em semestre\SIO\SIO_Labo1_Herzig_Melvyn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEB5D1C-AED3-4CA3-87DB-548280B1BC0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1EA330-6014-49E3-8DB2-CA05E57BD1C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{BEB6CF7D-1294-4E18-A1A5-851671F59887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BEB6CF7D-1294-4E18-A1A5-851671F59887}"/>
   </bookViews>
   <sheets>
     <sheet name="Faible" sheetId="3" r:id="rId1"/>
@@ -1318,19 +1318,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>336</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12133</c:v>
+                  <c:v>4838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5068</c:v>
+                  <c:v>4291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22020</c:v>
+                  <c:v>32615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80182</c:v>
+                  <c:v>48254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,19 +1452,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>184</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6809</c:v>
+                  <c:v>4617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5170</c:v>
+                  <c:v>4438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22694</c:v>
+                  <c:v>38593</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89684</c:v>
+                  <c:v>55144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,19 +1586,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>532</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14450</c:v>
+                  <c:v>3351</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6763</c:v>
+                  <c:v>6169</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26143</c:v>
+                  <c:v>37613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88464</c:v>
+                  <c:v>57550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1720,19 +1720,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>321</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5974</c:v>
+                  <c:v>1453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7943</c:v>
+                  <c:v>6466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31107</c:v>
+                  <c:v>38677</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79007</c:v>
+                  <c:v>53259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3210,19 +3210,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>994</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7251</c:v>
+                  <c:v>6409</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24878</c:v>
+                  <c:v>49233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51921</c:v>
+                  <c:v>77138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>274455</c:v>
+                  <c:v>329833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3344,19 +3344,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>634</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5841</c:v>
+                  <c:v>6556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34349</c:v>
+                  <c:v>47080</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70615</c:v>
+                  <c:v>83583</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280307</c:v>
+                  <c:v>356727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3478,19 +3478,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1120</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10233</c:v>
+                  <c:v>6251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35251</c:v>
+                  <c:v>45857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87912</c:v>
+                  <c:v>80205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>358025</c:v>
+                  <c:v>345079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3612,19 +3612,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>918</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7084</c:v>
+                  <c:v>6748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28351</c:v>
+                  <c:v>50926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74727</c:v>
+                  <c:v>75372</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>311940</c:v>
+                  <c:v>342851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5078,19 +5078,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1542</c:v>
+                  <c:v>1467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13800</c:v>
+                  <c:v>11891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42683</c:v>
+                  <c:v>50734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106018</c:v>
+                  <c:v>116610</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>440561</c:v>
+                  <c:v>408236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5212,19 +5212,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1756</c:v>
+                  <c:v>1226</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10519</c:v>
+                  <c:v>14698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35197</c:v>
+                  <c:v>57384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108496</c:v>
+                  <c:v>127608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>465312</c:v>
+                  <c:v>454257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5346,19 +5346,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2769</c:v>
+                  <c:v>1492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15483</c:v>
+                  <c:v>18071</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64440</c:v>
+                  <c:v>53859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160128</c:v>
+                  <c:v>117992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>660064</c:v>
+                  <c:v>414210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5480,19 +5480,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2166</c:v>
+                  <c:v>1426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15625</c:v>
+                  <c:v>14210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45909</c:v>
+                  <c:v>52834</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>126332</c:v>
+                  <c:v>117863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>559490</c:v>
+                  <c:v>411167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6000,13 +6000,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>288493</c:v>
+                  <c:v>610718</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>476512</c:v>
+                  <c:v>726600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1062705</c:v>
+                  <c:v>1134104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6122,13 +6122,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>286496</c:v>
+                  <c:v>647892</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577097</c:v>
+                  <c:v>767398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1175533</c:v>
+                  <c:v>1218542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6244,13 +6244,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>386036</c:v>
+                  <c:v>629839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>645930</c:v>
+                  <c:v>787120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1539693</c:v>
+                  <c:v>1251233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6366,13 +6366,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>352974</c:v>
+                  <c:v>635876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>587338</c:v>
+                  <c:v>767391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1283745</c:v>
+                  <c:v>1222602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12521,7 +12521,7 @@
   <dimension ref="C6:T12"/>
   <sheetViews>
     <sheetView topLeftCell="D2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12611,25 +12611,25 @@
         <v>0.10004809619238476</v>
       </c>
       <c r="J8">
-        <v>336</v>
+        <v>159</v>
       </c>
       <c r="K8">
         <v>33</v>
       </c>
       <c r="M8">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="N8">
         <v>36</v>
       </c>
       <c r="P8">
-        <v>532</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>35</v>
       </c>
       <c r="S8">
-        <v>321</v>
+        <v>166</v>
       </c>
       <c r="T8">
         <v>32</v>
@@ -12653,25 +12653,25 @@
         <v>0.10006006006006006</v>
       </c>
       <c r="J9">
-        <v>12133</v>
+        <v>4838</v>
       </c>
       <c r="K9">
         <v>58</v>
       </c>
       <c r="M9">
-        <v>6809</v>
+        <v>4617</v>
       </c>
       <c r="N9">
         <v>68</v>
       </c>
       <c r="P9">
-        <v>14450</v>
+        <v>3351</v>
       </c>
       <c r="Q9">
         <v>67</v>
       </c>
       <c r="S9">
-        <v>5974</v>
+        <v>1453</v>
       </c>
       <c r="T9">
         <v>58</v>
@@ -12695,25 +12695,25 @@
         <v>0.10007653826913457</v>
       </c>
       <c r="J10">
-        <v>5068</v>
+        <v>4291</v>
       </c>
       <c r="K10">
         <v>112</v>
       </c>
       <c r="M10">
-        <v>5170</v>
+        <v>4438</v>
       </c>
       <c r="N10">
         <v>126</v>
       </c>
       <c r="P10">
-        <v>6763</v>
+        <v>6169</v>
       </c>
       <c r="Q10">
         <v>128</v>
       </c>
       <c r="S10">
-        <v>7943</v>
+        <v>6466</v>
       </c>
       <c r="T10">
         <v>111</v>
@@ -12737,25 +12737,25 @@
         <v>0.10003413353338335</v>
       </c>
       <c r="J11">
-        <v>22020</v>
+        <v>32615</v>
       </c>
       <c r="K11">
         <v>229</v>
       </c>
       <c r="M11">
-        <v>22694</v>
+        <v>38593</v>
       </c>
       <c r="N11">
         <v>225</v>
       </c>
       <c r="P11">
-        <v>26143</v>
+        <v>37613</v>
       </c>
       <c r="Q11">
         <v>248</v>
       </c>
       <c r="S11">
-        <v>31107</v>
+        <v>38677</v>
       </c>
       <c r="T11">
         <v>231</v>
@@ -12779,25 +12779,25 @@
         <v>9.9995499437429677E-2</v>
       </c>
       <c r="J12">
-        <v>80182</v>
+        <v>48254</v>
       </c>
       <c r="K12">
         <v>449</v>
       </c>
       <c r="M12">
-        <v>89684</v>
+        <v>55144</v>
       </c>
       <c r="N12">
         <v>453</v>
       </c>
       <c r="P12">
-        <v>88464</v>
+        <v>57550</v>
       </c>
       <c r="Q12">
         <v>465</v>
       </c>
       <c r="S12">
-        <v>79007</v>
+        <v>53259</v>
       </c>
       <c r="T12">
         <v>422</v>
@@ -12814,7 +12814,7 @@
   <dimension ref="C6:T12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12904,25 +12904,25 @@
         <v>0.49992785571142284</v>
       </c>
       <c r="J8">
-        <v>994</v>
+        <v>624</v>
       </c>
       <c r="K8">
         <v>140</v>
       </c>
       <c r="M8">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="N8">
         <v>136</v>
       </c>
       <c r="P8">
-        <v>1120</v>
+        <v>558</v>
       </c>
       <c r="Q8">
         <v>142</v>
       </c>
       <c r="S8">
-        <v>918</v>
+        <v>568</v>
       </c>
       <c r="T8">
         <v>137</v>
@@ -12946,25 +12946,25 @@
         <v>0.50022622622622626</v>
       </c>
       <c r="J9">
-        <v>7251</v>
+        <v>6409</v>
       </c>
       <c r="K9">
         <v>278</v>
       </c>
       <c r="M9">
-        <v>5841</v>
+        <v>6556</v>
       </c>
       <c r="N9">
         <v>265</v>
       </c>
       <c r="P9">
-        <v>10233</v>
+        <v>6251</v>
       </c>
       <c r="Q9">
         <v>281</v>
       </c>
       <c r="S9">
-        <v>7084</v>
+        <v>6748</v>
       </c>
       <c r="T9">
         <v>270</v>
@@ -12988,25 +12988,25 @@
         <v>0.50000750375187597</v>
       </c>
       <c r="J10">
-        <v>24878</v>
+        <v>49233</v>
       </c>
       <c r="K10">
         <v>542</v>
       </c>
       <c r="M10">
-        <v>34349</v>
+        <v>47080</v>
       </c>
       <c r="N10">
         <v>509</v>
       </c>
       <c r="P10">
-        <v>35251</v>
+        <v>45857</v>
       </c>
       <c r="Q10">
         <v>544</v>
       </c>
       <c r="S10">
-        <v>28351</v>
+        <v>50926</v>
       </c>
       <c r="T10">
         <v>526</v>
@@ -13030,25 +13030,25 @@
         <v>0.49991972993248313</v>
       </c>
       <c r="J11">
-        <v>51921</v>
+        <v>77138</v>
       </c>
       <c r="K11">
         <v>1059</v>
       </c>
       <c r="M11">
-        <v>70615</v>
+        <v>83583</v>
       </c>
       <c r="N11">
         <v>1007</v>
       </c>
       <c r="P11">
-        <v>87912</v>
+        <v>80205</v>
       </c>
       <c r="Q11">
         <v>1061</v>
       </c>
       <c r="S11">
-        <v>74727</v>
+        <v>75372</v>
       </c>
       <c r="T11">
         <v>1039</v>
@@ -13072,25 +13072,25 @@
         <v>0.4998925803225403</v>
       </c>
       <c r="J12">
-        <v>274455</v>
+        <v>329833</v>
       </c>
       <c r="K12">
         <v>2107</v>
       </c>
       <c r="M12">
-        <v>280307</v>
+        <v>356727</v>
       </c>
       <c r="N12">
         <v>1992</v>
       </c>
       <c r="P12">
-        <v>358025</v>
+        <v>345079</v>
       </c>
       <c r="Q12">
         <v>2117</v>
       </c>
       <c r="S12">
-        <v>311940</v>
+        <v>342851</v>
       </c>
       <c r="T12">
         <v>2078</v>
@@ -13197,25 +13197,25 @@
         <v>0.9002164328657315</v>
       </c>
       <c r="J8">
-        <v>1542</v>
+        <v>1467</v>
       </c>
       <c r="K8">
         <v>316</v>
       </c>
       <c r="M8">
-        <v>1756</v>
+        <v>1226</v>
       </c>
       <c r="N8">
         <v>322</v>
       </c>
       <c r="P8">
-        <v>2769</v>
+        <v>1492</v>
       </c>
       <c r="Q8">
         <v>316</v>
       </c>
       <c r="S8">
-        <v>2166</v>
+        <v>1426</v>
       </c>
       <c r="T8">
         <v>316</v>
@@ -13239,25 +13239,25 @@
         <v>0.90015215215215216</v>
       </c>
       <c r="J9">
-        <v>13800</v>
+        <v>11891</v>
       </c>
       <c r="K9">
         <v>609</v>
       </c>
       <c r="M9">
-        <v>10519</v>
+        <v>14698</v>
       </c>
       <c r="N9">
         <v>628</v>
       </c>
       <c r="P9">
-        <v>15483</v>
+        <v>18071</v>
       </c>
       <c r="Q9">
         <v>609</v>
       </c>
       <c r="S9">
-        <v>15625</v>
+        <v>14210</v>
       </c>
       <c r="T9">
         <v>609</v>
@@ -13281,25 +13281,25 @@
         <v>0.89997348674337163</v>
       </c>
       <c r="J10">
-        <v>42683</v>
+        <v>50734</v>
       </c>
       <c r="K10">
         <v>1221</v>
       </c>
       <c r="M10">
-        <v>35197</v>
+        <v>57384</v>
       </c>
       <c r="N10">
         <v>1250</v>
       </c>
       <c r="P10">
-        <v>64440</v>
+        <v>53859</v>
       </c>
       <c r="Q10">
         <v>1221</v>
       </c>
       <c r="S10">
-        <v>45909</v>
+        <v>52834</v>
       </c>
       <c r="T10">
         <v>1220</v>
@@ -13323,25 +13323,25 @@
         <v>0.90011977994498626</v>
       </c>
       <c r="J11">
-        <v>106018</v>
+        <v>116610</v>
       </c>
       <c r="K11">
         <v>2430</v>
       </c>
       <c r="M11">
-        <v>108496</v>
+        <v>127608</v>
       </c>
       <c r="N11">
         <v>2496</v>
       </c>
       <c r="P11">
-        <v>160128</v>
+        <v>117992</v>
       </c>
       <c r="Q11">
         <v>2430</v>
       </c>
       <c r="S11">
-        <v>126332</v>
+        <v>117863</v>
       </c>
       <c r="T11">
         <v>2430</v>
@@ -13365,25 +13365,25 @@
         <v>0.90028912989123644</v>
       </c>
       <c r="J12">
-        <v>440561</v>
+        <v>408236</v>
       </c>
       <c r="K12">
         <v>4842</v>
       </c>
       <c r="M12">
-        <v>465312</v>
+        <v>454257</v>
       </c>
       <c r="N12">
         <v>4990</v>
       </c>
       <c r="P12">
-        <v>660064</v>
+        <v>414210</v>
       </c>
       <c r="Q12">
         <v>4842</v>
       </c>
       <c r="S12">
-        <v>559490</v>
+        <v>411167</v>
       </c>
       <c r="T12">
         <v>4842</v>
@@ -13400,7 +13400,7 @@
   <dimension ref="C6:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13490,25 +13490,25 @@
         <v>0.16437759608836183</v>
       </c>
       <c r="J8">
-        <v>288493</v>
+        <v>610718</v>
       </c>
       <c r="K8">
         <v>1437</v>
       </c>
       <c r="M8">
-        <v>286496</v>
+        <v>647892</v>
       </c>
       <c r="N8">
         <v>1412</v>
       </c>
       <c r="P8">
-        <v>386036</v>
+        <v>629839</v>
       </c>
       <c r="Q8">
         <v>1396</v>
       </c>
       <c r="S8">
-        <v>352974</v>
+        <v>635876</v>
       </c>
       <c r="T8">
         <v>1422</v>
@@ -13532,25 +13532,25 @@
         <v>9.6437775076674934E-2</v>
       </c>
       <c r="J9">
-        <v>476512</v>
+        <v>726600</v>
       </c>
       <c r="K9">
         <v>1602</v>
       </c>
       <c r="M9">
-        <v>577097</v>
+        <v>767398</v>
       </c>
       <c r="N9">
         <v>1546</v>
       </c>
       <c r="P9">
-        <v>645930</v>
+        <v>787120</v>
       </c>
       <c r="Q9">
         <v>1586</v>
       </c>
       <c r="S9">
-        <v>587338</v>
+        <v>767391</v>
       </c>
       <c r="T9">
         <v>1510</v>
@@ -13574,25 +13574,25 @@
         <v>0.12108696906993241</v>
       </c>
       <c r="J10">
-        <v>1062705</v>
+        <v>1134104</v>
       </c>
       <c r="K10">
         <v>2485</v>
       </c>
       <c r="M10">
-        <v>1175533</v>
+        <v>1218542</v>
       </c>
       <c r="N10">
         <v>2411</v>
       </c>
       <c r="P10">
-        <v>1539693</v>
+        <v>1251233</v>
       </c>
       <c r="Q10">
         <v>2500</v>
       </c>
       <c r="S10">
-        <v>1283745</v>
+        <v>1222602</v>
       </c>
       <c r="T10">
         <v>2473</v>

--- a/donnee.xlsx
+++ b/donnee.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melvy\Desktop\Application\Drive\HEIG_VD\4em semestre\SIO\SIO_Labo1_Herzig_Melvyn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1EA330-6014-49E3-8DB2-CA05E57BD1C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C28D37-0F0B-4876-A00F-DB0D800C48A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BEB6CF7D-1294-4E18-A1A5-851671F59887}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{BEB6CF7D-1294-4E18-A1A5-851671F59887}"/>
   </bookViews>
   <sheets>
     <sheet name="Faible" sheetId="3" r:id="rId1"/>
     <sheet name="Moyen" sheetId="4" r:id="rId2"/>
     <sheet name="Dense" sheetId="2" r:id="rId3"/>
     <sheet name="VLSI" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="6" r:id="rId5"/>
+    <sheet name="Feuil2" sheetId="7" r:id="rId6"/>
+    <sheet name="Feuil3" sheetId="8" r:id="rId7"/>
+    <sheet name="Feuil4" sheetId="9" r:id="rId8"/>
+    <sheet name="Feuil5" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="36">
   <si>
     <t>Fichier</t>
   </si>
@@ -125,6 +130,27 @@
   <si>
     <t>VLSI3 ( 38478 ; 89635719)</t>
   </si>
+  <si>
+    <t>VLSI1</t>
+  </si>
+  <si>
+    <t>VLSI2</t>
+  </si>
+  <si>
+    <t>VLSI3</t>
+  </si>
+  <si>
+    <t>Nesest</t>
+  </si>
+  <si>
+    <t>VLSI1 (17845)</t>
+  </si>
+  <si>
+    <t>VLSI3 (38478)</t>
+  </si>
+  <si>
+    <t>VLSI2 (29514)</t>
+  </si>
 </sst>
 </file>
 
@@ -147,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -155,12 +181,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,6 +1103,2726 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1565144176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Vitesse d'exécution dans un graphe moyennement dense (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>≈0,5)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oldest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$C$20:$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R500_5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1000_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R2000_5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R4000_5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R8000_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$D$20:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>268561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85C6-49B3-95AE-0E79C5368131}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nesest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$C$20:$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R500_5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1000_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R2000_5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R4000_5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R8000_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$E$20:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>289313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85C6-49B3-95AE-0E79C5368131}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$C$20:$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R500_5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1000_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R2000_5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R4000_5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R8000_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$F$20:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>268270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-85C6-49B3-95AE-0E79C5368131}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Most</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$C$20:$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R500_5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1000_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R2000_5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R4000_5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R8000_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$G$20:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-85C6-49B3-95AE-0E79C5368131}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1633946224"/>
+        <c:axId val="1633936240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1633946224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Fichier (premier nombre = |V|)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633936240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1633936240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Microsecondes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633946224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Vitesse d'exécution dans un graphe très dense (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>≈0,9)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil4!$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oldest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil4!$E$25:$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R500_9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1000_9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R2000_9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R4000_9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R8000_9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil4!$F$25:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>412412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AD6-4BBB-838D-9064F81B5D6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil4!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Newest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil4!$E$25:$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R500_9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1000_9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R2000_9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R4000_9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R8000_9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil4!$G$25:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>436555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AD6-4BBB-838D-9064F81B5D6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil4!$H$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil4!$E$25:$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R500_9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1000_9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R2000_9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R4000_9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R8000_9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil4!$H$25:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40290</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>414654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AD6-4BBB-838D-9064F81B5D6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil4!$I$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Most</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil4!$E$25:$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R500_9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1000_9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R2000_9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R4000_9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R8000_9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil4!$I$25:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>272313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9AD6-4BBB-838D-9064F81B5D6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1645842992"/>
+        <c:axId val="1645843408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1645842992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Fichier ( premier nombre = |V|)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645843408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1645843408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Microsecondes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645842992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Vitesse d'exécution dans un VLSI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil5!$F$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oldest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil5!$E$26:$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>VLSI1 (17845)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VLSI2 (29514)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VLSI3 (38478)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil5!$F$26:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>421370</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>621426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>969140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EFF-4518-A173-FDDDB229E9AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil5!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Newest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil5!$E$26:$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>VLSI1 (17845)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VLSI2 (29514)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VLSI3 (38478)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil5!$G$26:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>452885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>622490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1136412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EFF-4518-A173-FDDDB229E9AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil5!$H$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil5!$E$26:$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>VLSI1 (17845)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VLSI2 (29514)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VLSI3 (38478)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil5!$H$26:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>440140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>678025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1193273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3EFF-4518-A173-FDDDB229E9AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil5!$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Most</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil5!$E$26:$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>VLSI1 (17845)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VLSI2 (29514)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VLSI3 (38478)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil5!$I$26:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>444963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>860712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>777831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3EFF-4518-A173-FDDDB229E9AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1648669552"/>
+        <c:axId val="1648666640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1648669552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Fichier (|V|)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648666640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1648666640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Microsecondes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648669552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7569,7 +10355,1052 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Vitesse d'exécution dans un graphe peu dense (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>≈0,1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oldest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil2!$E$19:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R500_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1000_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R2000_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R4000_1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R8000_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil2!$F$19:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46C5-40E7-8F15-CFC9F19619E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Newest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil2!$E$19:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R500_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1000_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R2000_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R4000_1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R8000_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil2!$G$19:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46C5-40E7-8F15-CFC9F19619E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil2!$E$19:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R500_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1000_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R2000_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R4000_1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R8000_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil2!$H$19:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-46C5-40E7-8F15-CFC9F19619E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Most</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil2!$E$19:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R500_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1000_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R2000_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R4000_1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R8000_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil2!$I$19:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-46C5-40E7-8F15-CFC9F19619E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1633954544"/>
+        <c:axId val="1633945808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1633954544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Fichier (premier nombre = |V|)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633945808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1633945808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Microsecondes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633954544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7889,6 +11720,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8392,7 +12263,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8895,7 +12766,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9398,7 +13269,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9901,7 +13772,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10404,7 +14275,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10907,7 +14778,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11410,7 +15281,2019 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12221,6 +18104,170 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66FF7AE-F5AD-4831-B452-8C637B35C524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CCA6FF-9457-4371-AA84-F06ADAA329BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D81B2A-D082-407B-8343-8FD69BF744C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39857DBD-223B-4DF1-A6DE-754DDB35AD55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -12520,8 +18567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BCBC6C-93F1-4AFD-9308-B1C1961DDAFA}">
   <dimension ref="C6:T12"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13399,8 +19446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43554CB2-82C2-470A-8BD7-8E2ED874ADF5}">
   <dimension ref="C6:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13602,4 +19649,2748 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC951EC9-F3F8-4C9B-AD27-28399707A3D1}">
+  <dimension ref="C5:T24"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:T5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>267</v>
+      </c>
+      <c r="F7">
+        <v>265</v>
+      </c>
+      <c r="G7">
+        <v>414</v>
+      </c>
+      <c r="H7" s="1">
+        <f>ROUND( (E7+F7+G7)/3,0)</f>
+        <v>315</v>
+      </c>
+      <c r="I7">
+        <v>156</v>
+      </c>
+      <c r="J7">
+        <v>159</v>
+      </c>
+      <c r="K7">
+        <v>171</v>
+      </c>
+      <c r="L7" s="1">
+        <f>ROUND((I7+J7+K7)/3,0)</f>
+        <v>162</v>
+      </c>
+      <c r="M7">
+        <v>178</v>
+      </c>
+      <c r="N7">
+        <v>182</v>
+      </c>
+      <c r="O7">
+        <v>224</v>
+      </c>
+      <c r="P7" s="1">
+        <f>ROUND((M7+N7+O7)/3,0)</f>
+        <v>195</v>
+      </c>
+      <c r="Q7">
+        <v>167</v>
+      </c>
+      <c r="R7">
+        <v>167</v>
+      </c>
+      <c r="S7">
+        <v>212</v>
+      </c>
+      <c r="T7" s="1">
+        <f>ROUND((Q7+R7+S8)/3,0)</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1256</v>
+      </c>
+      <c r="F8">
+        <v>947</v>
+      </c>
+      <c r="G8">
+        <v>1035</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H24" si="0">ROUND( (E8+F8+G8)/3,0)</f>
+        <v>1079</v>
+      </c>
+      <c r="I8">
+        <v>890</v>
+      </c>
+      <c r="J8">
+        <v>647</v>
+      </c>
+      <c r="K8">
+        <v>626</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ref="L8:L24" si="1">ROUND((I8+J8+K8)/3,0)</f>
+        <v>721</v>
+      </c>
+      <c r="M8">
+        <v>805</v>
+      </c>
+      <c r="N8">
+        <v>548</v>
+      </c>
+      <c r="O8">
+        <v>555</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" ref="P8:P24" si="2">ROUND((M8+N8+O8)/3,0)</f>
+        <v>636</v>
+      </c>
+      <c r="Q8">
+        <v>859</v>
+      </c>
+      <c r="R8">
+        <v>554</v>
+      </c>
+      <c r="S8">
+        <v>559</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" ref="T8:T24" si="3">ROUND((Q8+R8+S9)/3,0)</f>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>1507</v>
+      </c>
+      <c r="F9">
+        <v>1839</v>
+      </c>
+      <c r="G9">
+        <v>2011</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>1786</v>
+      </c>
+      <c r="I9">
+        <v>1326</v>
+      </c>
+      <c r="J9">
+        <v>2297</v>
+      </c>
+      <c r="K9">
+        <v>1890</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>1838</v>
+      </c>
+      <c r="M9">
+        <v>1144</v>
+      </c>
+      <c r="N9">
+        <v>1843</v>
+      </c>
+      <c r="O9">
+        <v>1516</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
+        <v>1501</v>
+      </c>
+      <c r="Q9">
+        <v>1821</v>
+      </c>
+      <c r="R9">
+        <v>1987</v>
+      </c>
+      <c r="S9">
+        <v>1173</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="3"/>
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>10668</v>
+      </c>
+      <c r="F10">
+        <v>12410</v>
+      </c>
+      <c r="G10">
+        <v>10935</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>11338</v>
+      </c>
+      <c r="I10">
+        <v>5142</v>
+      </c>
+      <c r="J10">
+        <v>6125</v>
+      </c>
+      <c r="K10">
+        <v>4446</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>5238</v>
+      </c>
+      <c r="M10">
+        <v>4949</v>
+      </c>
+      <c r="N10">
+        <v>6930</v>
+      </c>
+      <c r="O10">
+        <v>4561</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
+        <v>5480</v>
+      </c>
+      <c r="Q10">
+        <v>5299</v>
+      </c>
+      <c r="R10">
+        <v>5467</v>
+      </c>
+      <c r="S10">
+        <v>4852</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="3"/>
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>17248</v>
+      </c>
+      <c r="F11">
+        <v>15093</v>
+      </c>
+      <c r="G11">
+        <v>16026</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>16122</v>
+      </c>
+      <c r="I11">
+        <v>15714</v>
+      </c>
+      <c r="J11">
+        <v>15087</v>
+      </c>
+      <c r="K11">
+        <v>15029</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>15277</v>
+      </c>
+      <c r="M11">
+        <v>9087</v>
+      </c>
+      <c r="N11">
+        <v>8656</v>
+      </c>
+      <c r="O11">
+        <v>6608</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="2"/>
+        <v>8117</v>
+      </c>
+      <c r="Q11">
+        <v>6152</v>
+      </c>
+      <c r="R11">
+        <v>8054</v>
+      </c>
+      <c r="S11">
+        <v>5066</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="3"/>
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>10103</v>
+      </c>
+      <c r="F12">
+        <v>10872</v>
+      </c>
+      <c r="G12">
+        <v>11105</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>10693</v>
+      </c>
+      <c r="I12">
+        <v>14465</v>
+      </c>
+      <c r="J12">
+        <v>9941</v>
+      </c>
+      <c r="K12">
+        <v>11445</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>11950</v>
+      </c>
+      <c r="M12">
+        <v>11281</v>
+      </c>
+      <c r="N12">
+        <v>7799</v>
+      </c>
+      <c r="O12">
+        <v>10629</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="2"/>
+        <v>9903</v>
+      </c>
+      <c r="Q12">
+        <v>12328</v>
+      </c>
+      <c r="R12">
+        <v>10554</v>
+      </c>
+      <c r="S12">
+        <v>12266</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="3"/>
+        <v>9347</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>6415</v>
+      </c>
+      <c r="F13">
+        <v>5394</v>
+      </c>
+      <c r="G13">
+        <v>5036</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>5615</v>
+      </c>
+      <c r="I13">
+        <v>6280</v>
+      </c>
+      <c r="J13">
+        <v>7811</v>
+      </c>
+      <c r="K13">
+        <v>4838</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>6310</v>
+      </c>
+      <c r="M13">
+        <v>6947</v>
+      </c>
+      <c r="N13">
+        <v>8608</v>
+      </c>
+      <c r="O13">
+        <v>5514</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="2"/>
+        <v>7023</v>
+      </c>
+      <c r="Q13">
+        <v>8161</v>
+      </c>
+      <c r="R13">
+        <v>6960</v>
+      </c>
+      <c r="S13">
+        <v>5158</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="3"/>
+        <v>13662</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>25189</v>
+      </c>
+      <c r="F14">
+        <v>29023</v>
+      </c>
+      <c r="G14">
+        <v>27495</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>27236</v>
+      </c>
+      <c r="I14">
+        <v>31417</v>
+      </c>
+      <c r="J14">
+        <v>34235</v>
+      </c>
+      <c r="K14">
+        <v>23062</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>29571</v>
+      </c>
+      <c r="M14">
+        <v>27932</v>
+      </c>
+      <c r="N14">
+        <v>38732</v>
+      </c>
+      <c r="O14">
+        <v>22062</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="2"/>
+        <v>29575</v>
+      </c>
+      <c r="Q14">
+        <v>27432</v>
+      </c>
+      <c r="R14">
+        <v>39786</v>
+      </c>
+      <c r="S14">
+        <v>25866</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="3"/>
+        <v>31926</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>24694</v>
+      </c>
+      <c r="F15">
+        <v>22889</v>
+      </c>
+      <c r="G15">
+        <v>24673</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>24085</v>
+      </c>
+      <c r="I15">
+        <v>39530</v>
+      </c>
+      <c r="J15">
+        <v>28929</v>
+      </c>
+      <c r="K15">
+        <v>44607</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>37689</v>
+      </c>
+      <c r="M15">
+        <v>34399</v>
+      </c>
+      <c r="N15">
+        <v>42230</v>
+      </c>
+      <c r="O15">
+        <v>44242</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="2"/>
+        <v>40290</v>
+      </c>
+      <c r="Q15">
+        <v>33000</v>
+      </c>
+      <c r="R15">
+        <v>31728</v>
+      </c>
+      <c r="S15">
+        <v>28559</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="3"/>
+        <v>29481</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>18103</v>
+      </c>
+      <c r="F16">
+        <v>19758</v>
+      </c>
+      <c r="G16">
+        <v>17391</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>18417</v>
+      </c>
+      <c r="I16">
+        <v>24029</v>
+      </c>
+      <c r="J16">
+        <v>23727</v>
+      </c>
+      <c r="K16">
+        <v>17140</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>21632</v>
+      </c>
+      <c r="M16">
+        <v>18307</v>
+      </c>
+      <c r="N16">
+        <v>25808</v>
+      </c>
+      <c r="O16">
+        <v>19089</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="2"/>
+        <v>21068</v>
+      </c>
+      <c r="Q16">
+        <v>27006</v>
+      </c>
+      <c r="R16">
+        <v>24545</v>
+      </c>
+      <c r="S16">
+        <v>23714</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="3"/>
+        <v>37321</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>45885</v>
+      </c>
+      <c r="F17">
+        <v>77481</v>
+      </c>
+      <c r="G17">
+        <v>57143</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>60170</v>
+      </c>
+      <c r="I17">
+        <v>62092</v>
+      </c>
+      <c r="J17">
+        <v>83789</v>
+      </c>
+      <c r="K17">
+        <v>59833</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="1"/>
+        <v>68571</v>
+      </c>
+      <c r="M17">
+        <v>49947</v>
+      </c>
+      <c r="N17">
+        <v>65144</v>
+      </c>
+      <c r="O17">
+        <v>57064</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="2"/>
+        <v>57385</v>
+      </c>
+      <c r="Q17">
+        <v>54286</v>
+      </c>
+      <c r="R17">
+        <v>79481</v>
+      </c>
+      <c r="S17">
+        <v>60412</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" si="3"/>
+        <v>102711</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>117474</v>
+      </c>
+      <c r="F18">
+        <v>119985</v>
+      </c>
+      <c r="G18">
+        <v>111527</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
+        <v>116329</v>
+      </c>
+      <c r="I18">
+        <v>154802</v>
+      </c>
+      <c r="J18">
+        <v>128781</v>
+      </c>
+      <c r="K18">
+        <v>143349</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="1"/>
+        <v>142311</v>
+      </c>
+      <c r="M18">
+        <v>110653</v>
+      </c>
+      <c r="N18">
+        <v>107295</v>
+      </c>
+      <c r="O18">
+        <v>111575</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="2"/>
+        <v>109841</v>
+      </c>
+      <c r="Q18">
+        <v>130221</v>
+      </c>
+      <c r="R18">
+        <v>138700</v>
+      </c>
+      <c r="S18">
+        <v>174366</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="3"/>
+        <v>111577</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>78822</v>
+      </c>
+      <c r="F19">
+        <v>48340</v>
+      </c>
+      <c r="G19">
+        <v>62298</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>63153</v>
+      </c>
+      <c r="I19">
+        <v>58920</v>
+      </c>
+      <c r="J19">
+        <v>44601</v>
+      </c>
+      <c r="K19">
+        <v>66211</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="1"/>
+        <v>56577</v>
+      </c>
+      <c r="M19">
+        <v>77324</v>
+      </c>
+      <c r="N19">
+        <v>47909</v>
+      </c>
+      <c r="O19">
+        <v>67307</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="2"/>
+        <v>64180</v>
+      </c>
+      <c r="Q19">
+        <v>71974</v>
+      </c>
+      <c r="R19">
+        <v>49534</v>
+      </c>
+      <c r="S19">
+        <v>65810</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="3"/>
+        <v>124814</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>204672</v>
+      </c>
+      <c r="F20">
+        <v>354921</v>
+      </c>
+      <c r="G20">
+        <v>246091</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="0"/>
+        <v>268561</v>
+      </c>
+      <c r="I20">
+        <v>237958</v>
+      </c>
+      <c r="J20">
+        <v>357892</v>
+      </c>
+      <c r="K20">
+        <v>272090</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="1"/>
+        <v>289313</v>
+      </c>
+      <c r="M20">
+        <v>232763</v>
+      </c>
+      <c r="N20">
+        <v>322287</v>
+      </c>
+      <c r="O20">
+        <v>249759</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="2"/>
+        <v>268270</v>
+      </c>
+      <c r="Q20">
+        <v>215374</v>
+      </c>
+      <c r="R20">
+        <v>350628</v>
+      </c>
+      <c r="S20">
+        <v>252934</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="3"/>
+        <v>310558</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>366980</v>
+      </c>
+      <c r="F21">
+        <v>478257</v>
+      </c>
+      <c r="G21">
+        <v>392000</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
+        <v>412412</v>
+      </c>
+      <c r="I21">
+        <v>405778</v>
+      </c>
+      <c r="J21">
+        <v>482865</v>
+      </c>
+      <c r="K21">
+        <v>421023</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="1"/>
+        <v>436555</v>
+      </c>
+      <c r="M21">
+        <v>391892</v>
+      </c>
+      <c r="N21">
+        <v>457811</v>
+      </c>
+      <c r="O21">
+        <v>394260</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="2"/>
+        <v>414654</v>
+      </c>
+      <c r="Q21">
+        <v>389987</v>
+      </c>
+      <c r="R21">
+        <v>426951</v>
+      </c>
+      <c r="S21">
+        <v>365673</v>
+      </c>
+      <c r="T21" s="2">
+        <f t="shared" si="3"/>
+        <v>480734</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>338501</v>
+      </c>
+      <c r="F22">
+        <v>395386</v>
+      </c>
+      <c r="G22">
+        <v>530223</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
+        <v>421370</v>
+      </c>
+      <c r="I22">
+        <v>343535</v>
+      </c>
+      <c r="J22">
+        <v>394928</v>
+      </c>
+      <c r="K22">
+        <v>620192</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="1"/>
+        <v>452885</v>
+      </c>
+      <c r="M22">
+        <v>398290</v>
+      </c>
+      <c r="N22">
+        <v>363245</v>
+      </c>
+      <c r="O22">
+        <v>558885</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="2"/>
+        <v>440140</v>
+      </c>
+      <c r="Q22">
+        <v>353118</v>
+      </c>
+      <c r="R22">
+        <v>398330</v>
+      </c>
+      <c r="S22">
+        <v>625264</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="3"/>
+        <v>444963</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>560371</v>
+      </c>
+      <c r="F23">
+        <v>686040</v>
+      </c>
+      <c r="G23">
+        <v>617866</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
+        <v>621426</v>
+      </c>
+      <c r="I23">
+        <v>627523</v>
+      </c>
+      <c r="J23">
+        <v>645551</v>
+      </c>
+      <c r="K23">
+        <v>594396</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="1"/>
+        <v>622490</v>
+      </c>
+      <c r="M23">
+        <v>652709</v>
+      </c>
+      <c r="N23">
+        <v>673842</v>
+      </c>
+      <c r="O23">
+        <v>707524</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="2"/>
+        <v>678025</v>
+      </c>
+      <c r="Q23">
+        <v>594919</v>
+      </c>
+      <c r="R23">
+        <v>740266</v>
+      </c>
+      <c r="S23">
+        <v>583442</v>
+      </c>
+      <c r="T23" s="2">
+        <f t="shared" si="3"/>
+        <v>860712</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>951316</v>
+      </c>
+      <c r="F24">
+        <v>964194</v>
+      </c>
+      <c r="G24">
+        <v>991910</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>969140</v>
+      </c>
+      <c r="I24">
+        <v>1153877</v>
+      </c>
+      <c r="J24">
+        <v>1062130</v>
+      </c>
+      <c r="K24">
+        <v>1193230</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="1"/>
+        <v>1136412</v>
+      </c>
+      <c r="M24">
+        <v>1225930</v>
+      </c>
+      <c r="N24">
+        <v>1100916</v>
+      </c>
+      <c r="O24">
+        <v>1252973</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="2"/>
+        <v>1193273</v>
+      </c>
+      <c r="Q24">
+        <v>1226892</v>
+      </c>
+      <c r="R24">
+        <v>1106600</v>
+      </c>
+      <c r="S24">
+        <v>1246950</v>
+      </c>
+      <c r="T24" s="3">
+        <f t="shared" si="3"/>
+        <v>777831</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096EDD9A-94EE-490C-A39F-673099D15D9A}">
+  <dimension ref="E9:V23"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>267</v>
+      </c>
+      <c r="H10">
+        <v>265</v>
+      </c>
+      <c r="I10">
+        <v>414</v>
+      </c>
+      <c r="J10" s="1">
+        <f>ROUND( (G10+H10+I10)/3,0)</f>
+        <v>315</v>
+      </c>
+      <c r="K10">
+        <v>156</v>
+      </c>
+      <c r="L10">
+        <v>159</v>
+      </c>
+      <c r="M10">
+        <v>171</v>
+      </c>
+      <c r="N10" s="1">
+        <f>ROUND((K10+L10+M10)/3,0)</f>
+        <v>162</v>
+      </c>
+      <c r="O10">
+        <v>178</v>
+      </c>
+      <c r="P10">
+        <v>182</v>
+      </c>
+      <c r="Q10">
+        <v>204</v>
+      </c>
+      <c r="R10" s="1">
+        <f>ROUND((O10+P10+Q10)/3,0)</f>
+        <v>188</v>
+      </c>
+      <c r="S10">
+        <v>167</v>
+      </c>
+      <c r="T10">
+        <v>167</v>
+      </c>
+      <c r="U10">
+        <v>212</v>
+      </c>
+      <c r="V10" s="1">
+        <f>ROUND((S10+T10+U10)/3,0)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>5668</v>
+      </c>
+      <c r="H11">
+        <v>5410</v>
+      </c>
+      <c r="I11">
+        <v>5935</v>
+      </c>
+      <c r="J11" s="2">
+        <f>ROUND( (G11+H11+I11)/3,0)</f>
+        <v>5671</v>
+      </c>
+      <c r="K11">
+        <v>5142</v>
+      </c>
+      <c r="L11">
+        <v>6125</v>
+      </c>
+      <c r="M11">
+        <v>4446</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ref="N11:N14" si="0">ROUND((K11+L11+M11)/3,0)</f>
+        <v>5238</v>
+      </c>
+      <c r="O11">
+        <v>4949</v>
+      </c>
+      <c r="P11">
+        <v>6930</v>
+      </c>
+      <c r="Q11">
+        <v>4561</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" ref="R11:R14" si="1">ROUND((O11+P11+Q11)/3,0)</f>
+        <v>5480</v>
+      </c>
+      <c r="S11">
+        <v>5299</v>
+      </c>
+      <c r="T11">
+        <v>5467</v>
+      </c>
+      <c r="U11">
+        <v>4852</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" ref="V11:V14" si="2">ROUND((S11+T11+U12)/3,0)</f>
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="12" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>6415</v>
+      </c>
+      <c r="H12">
+        <v>5394</v>
+      </c>
+      <c r="I12">
+        <v>5036</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ref="J11:J14" si="3">ROUND( (G12+H12+I12)/3,0)</f>
+        <v>5615</v>
+      </c>
+      <c r="K12">
+        <v>6280</v>
+      </c>
+      <c r="L12">
+        <v>7811</v>
+      </c>
+      <c r="M12">
+        <v>4838</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="0"/>
+        <v>6310</v>
+      </c>
+      <c r="O12">
+        <v>6947</v>
+      </c>
+      <c r="P12">
+        <v>8608</v>
+      </c>
+      <c r="Q12">
+        <v>5514</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="1"/>
+        <v>7023</v>
+      </c>
+      <c r="S12">
+        <v>8161</v>
+      </c>
+      <c r="T12">
+        <v>6960</v>
+      </c>
+      <c r="U12">
+        <v>5158</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="2"/>
+        <v>12945</v>
+      </c>
+    </row>
+    <row r="13" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>18103</v>
+      </c>
+      <c r="H13">
+        <v>19758</v>
+      </c>
+      <c r="I13">
+        <v>17391</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>18417</v>
+      </c>
+      <c r="K13">
+        <v>24029</v>
+      </c>
+      <c r="L13">
+        <v>23727</v>
+      </c>
+      <c r="M13">
+        <v>17140</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="0"/>
+        <v>21632</v>
+      </c>
+      <c r="O13">
+        <v>18307</v>
+      </c>
+      <c r="P13">
+        <v>25808</v>
+      </c>
+      <c r="Q13">
+        <v>19089</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="1"/>
+        <v>21068</v>
+      </c>
+      <c r="S13">
+        <v>27006</v>
+      </c>
+      <c r="T13">
+        <v>24545</v>
+      </c>
+      <c r="U13">
+        <v>23714</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="2"/>
+        <v>39120</v>
+      </c>
+    </row>
+    <row r="14" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>78822</v>
+      </c>
+      <c r="H14">
+        <v>48340</v>
+      </c>
+      <c r="I14">
+        <v>62298</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="3"/>
+        <v>63153</v>
+      </c>
+      <c r="K14">
+        <v>58920</v>
+      </c>
+      <c r="L14">
+        <v>44601</v>
+      </c>
+      <c r="M14">
+        <v>66211</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="0"/>
+        <v>56577</v>
+      </c>
+      <c r="O14">
+        <v>77324</v>
+      </c>
+      <c r="P14">
+        <v>47909</v>
+      </c>
+      <c r="Q14">
+        <v>67307</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="1"/>
+        <v>64180</v>
+      </c>
+      <c r="S14">
+        <v>71974</v>
+      </c>
+      <c r="T14">
+        <v>49534</v>
+      </c>
+      <c r="U14">
+        <v>65810</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" si="2"/>
+        <v>40503</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>315</v>
+      </c>
+      <c r="G19">
+        <v>162</v>
+      </c>
+      <c r="H19">
+        <v>188</v>
+      </c>
+      <c r="I19">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>5671</v>
+      </c>
+      <c r="G20">
+        <v>5238</v>
+      </c>
+      <c r="H20">
+        <v>5480</v>
+      </c>
+      <c r="I20">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>5615</v>
+      </c>
+      <c r="G21">
+        <v>6310</v>
+      </c>
+      <c r="H21">
+        <v>7023</v>
+      </c>
+      <c r="I21">
+        <v>12945</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>18417</v>
+      </c>
+      <c r="G22">
+        <v>21632</v>
+      </c>
+      <c r="H22">
+        <v>21068</v>
+      </c>
+      <c r="I22">
+        <v>39120</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>63152</v>
+      </c>
+      <c r="G23">
+        <v>56577</v>
+      </c>
+      <c r="H23">
+        <v>64180</v>
+      </c>
+      <c r="I23">
+        <v>40503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4B89BB-595A-4050-9F2A-924C79B47AB8}">
+  <dimension ref="B8:S24"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>1256</v>
+      </c>
+      <c r="E9">
+        <v>947</v>
+      </c>
+      <c r="F9">
+        <v>1035</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ref="G9:G13" si="0">ROUND( (D9+E9+F9)/3,0)</f>
+        <v>1079</v>
+      </c>
+      <c r="H9">
+        <v>890</v>
+      </c>
+      <c r="I9">
+        <v>647</v>
+      </c>
+      <c r="J9">
+        <v>626</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" ref="K9:K13" si="1">ROUND((H9+I9+J9)/3,0)</f>
+        <v>721</v>
+      </c>
+      <c r="L9">
+        <v>805</v>
+      </c>
+      <c r="M9">
+        <v>548</v>
+      </c>
+      <c r="N9">
+        <v>555</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" ref="O9:O13" si="2">ROUND((L9+M9+N9)/3,0)</f>
+        <v>636</v>
+      </c>
+      <c r="P9">
+        <v>859</v>
+      </c>
+      <c r="Q9">
+        <v>554</v>
+      </c>
+      <c r="R9">
+        <v>559</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" ref="S9:S13" si="3">ROUND((P9+Q9+R10)/3,0)</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>17248</v>
+      </c>
+      <c r="E10">
+        <v>15093</v>
+      </c>
+      <c r="F10">
+        <v>16026</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>16122</v>
+      </c>
+      <c r="H10">
+        <v>15714</v>
+      </c>
+      <c r="I10">
+        <v>15087</v>
+      </c>
+      <c r="J10">
+        <v>15029</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>15277</v>
+      </c>
+      <c r="L10">
+        <v>9087</v>
+      </c>
+      <c r="M10">
+        <v>8656</v>
+      </c>
+      <c r="N10">
+        <v>6608</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="2"/>
+        <v>8117</v>
+      </c>
+      <c r="P10">
+        <v>6152</v>
+      </c>
+      <c r="Q10">
+        <v>8054</v>
+      </c>
+      <c r="R10">
+        <v>5066</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="3"/>
+        <v>13357</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>25189</v>
+      </c>
+      <c r="E11">
+        <v>29023</v>
+      </c>
+      <c r="F11">
+        <v>27495</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>27236</v>
+      </c>
+      <c r="H11">
+        <v>31417</v>
+      </c>
+      <c r="I11">
+        <v>34235</v>
+      </c>
+      <c r="J11">
+        <v>23062</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>29571</v>
+      </c>
+      <c r="L11">
+        <v>27932</v>
+      </c>
+      <c r="M11">
+        <v>38732</v>
+      </c>
+      <c r="N11">
+        <v>22062</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="2"/>
+        <v>29575</v>
+      </c>
+      <c r="P11">
+        <v>27432</v>
+      </c>
+      <c r="Q11">
+        <v>39786</v>
+      </c>
+      <c r="R11">
+        <v>25866</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="3"/>
+        <v>42543</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>45885</v>
+      </c>
+      <c r="E12">
+        <v>77481</v>
+      </c>
+      <c r="F12">
+        <v>57143</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>60170</v>
+      </c>
+      <c r="H12">
+        <v>62092</v>
+      </c>
+      <c r="I12">
+        <v>83789</v>
+      </c>
+      <c r="J12">
+        <v>59833</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>68571</v>
+      </c>
+      <c r="L12">
+        <v>49947</v>
+      </c>
+      <c r="M12">
+        <v>65144</v>
+      </c>
+      <c r="N12">
+        <v>57064</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="2"/>
+        <v>57385</v>
+      </c>
+      <c r="P12">
+        <v>54286</v>
+      </c>
+      <c r="Q12">
+        <v>79481</v>
+      </c>
+      <c r="R12">
+        <v>60412</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="3"/>
+        <v>128900</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>204672</v>
+      </c>
+      <c r="E13">
+        <v>354921</v>
+      </c>
+      <c r="F13">
+        <v>246091</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>268561</v>
+      </c>
+      <c r="H13">
+        <v>237958</v>
+      </c>
+      <c r="I13">
+        <v>357892</v>
+      </c>
+      <c r="J13">
+        <v>272090</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>289313</v>
+      </c>
+      <c r="L13">
+        <v>232763</v>
+      </c>
+      <c r="M13">
+        <v>322287</v>
+      </c>
+      <c r="N13">
+        <v>249759</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="2"/>
+        <v>268270</v>
+      </c>
+      <c r="P13">
+        <v>215374</v>
+      </c>
+      <c r="Q13">
+        <v>350628</v>
+      </c>
+      <c r="R13">
+        <v>252934</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="3"/>
+        <v>188667</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>1079</v>
+      </c>
+      <c r="E20">
+        <v>721</v>
+      </c>
+      <c r="F20">
+        <v>636</v>
+      </c>
+      <c r="G20">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>16122</v>
+      </c>
+      <c r="E21">
+        <v>15277</v>
+      </c>
+      <c r="F21">
+        <v>8117</v>
+      </c>
+      <c r="G21">
+        <v>13357</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>27236</v>
+      </c>
+      <c r="E22">
+        <v>29571</v>
+      </c>
+      <c r="F22">
+        <v>29575</v>
+      </c>
+      <c r="G22">
+        <v>42543</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>60170</v>
+      </c>
+      <c r="E23">
+        <v>68571</v>
+      </c>
+      <c r="F23">
+        <v>57385</v>
+      </c>
+      <c r="G23">
+        <v>128900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>268561</v>
+      </c>
+      <c r="E24">
+        <v>289313</v>
+      </c>
+      <c r="F24">
+        <v>268270</v>
+      </c>
+      <c r="G24">
+        <v>188667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F9E8AE-8D3F-4CF7-956B-B41B7EA52CA7}">
+  <dimension ref="D8:U29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>1507</v>
+      </c>
+      <c r="G9">
+        <v>1839</v>
+      </c>
+      <c r="H9">
+        <v>2011</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" ref="I9:I13" si="0">ROUND( (F9+G9+H9)/3,0)</f>
+        <v>1786</v>
+      </c>
+      <c r="J9">
+        <v>1326</v>
+      </c>
+      <c r="K9">
+        <v>2297</v>
+      </c>
+      <c r="L9">
+        <v>1890</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" ref="M9:M13" si="1">ROUND((J9+K9+L9)/3,0)</f>
+        <v>1838</v>
+      </c>
+      <c r="N9">
+        <v>1144</v>
+      </c>
+      <c r="O9">
+        <v>1843</v>
+      </c>
+      <c r="P9">
+        <v>1516</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" ref="Q9:Q13" si="2">ROUND((N9+O9+P9)/3,0)</f>
+        <v>1501</v>
+      </c>
+      <c r="R9">
+        <v>1821</v>
+      </c>
+      <c r="S9">
+        <v>1987</v>
+      </c>
+      <c r="T9">
+        <v>1173</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" ref="U9:U13" si="3">ROUND((R9+S9+T10)/3,0)</f>
+        <v>5358</v>
+      </c>
+    </row>
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>10103</v>
+      </c>
+      <c r="G10">
+        <v>10872</v>
+      </c>
+      <c r="H10">
+        <v>11105</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>10693</v>
+      </c>
+      <c r="J10">
+        <v>14465</v>
+      </c>
+      <c r="K10">
+        <v>9941</v>
+      </c>
+      <c r="L10">
+        <v>11445</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>11950</v>
+      </c>
+      <c r="N10">
+        <v>11281</v>
+      </c>
+      <c r="O10">
+        <v>7799</v>
+      </c>
+      <c r="P10">
+        <v>10629</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="2"/>
+        <v>9903</v>
+      </c>
+      <c r="R10">
+        <v>12328</v>
+      </c>
+      <c r="S10">
+        <v>10554</v>
+      </c>
+      <c r="T10">
+        <v>12266</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="3"/>
+        <v>17147</v>
+      </c>
+    </row>
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>24694</v>
+      </c>
+      <c r="G11">
+        <v>22889</v>
+      </c>
+      <c r="H11">
+        <v>24673</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>24085</v>
+      </c>
+      <c r="J11">
+        <v>39530</v>
+      </c>
+      <c r="K11">
+        <v>28929</v>
+      </c>
+      <c r="L11">
+        <v>44607</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>37689</v>
+      </c>
+      <c r="N11">
+        <v>34399</v>
+      </c>
+      <c r="O11">
+        <v>42230</v>
+      </c>
+      <c r="P11">
+        <v>44242</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="2"/>
+        <v>40290</v>
+      </c>
+      <c r="R11">
+        <v>33000</v>
+      </c>
+      <c r="S11">
+        <v>31728</v>
+      </c>
+      <c r="T11">
+        <v>28559</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="3"/>
+        <v>79698</v>
+      </c>
+    </row>
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>117474</v>
+      </c>
+      <c r="G12">
+        <v>119985</v>
+      </c>
+      <c r="H12">
+        <v>111527</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>116329</v>
+      </c>
+      <c r="J12">
+        <v>154802</v>
+      </c>
+      <c r="K12">
+        <v>128781</v>
+      </c>
+      <c r="L12">
+        <v>143349</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>142311</v>
+      </c>
+      <c r="N12">
+        <v>110653</v>
+      </c>
+      <c r="O12">
+        <v>107295</v>
+      </c>
+      <c r="P12">
+        <v>111575</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="2"/>
+        <v>109841</v>
+      </c>
+      <c r="R12">
+        <v>130221</v>
+      </c>
+      <c r="S12">
+        <v>138700</v>
+      </c>
+      <c r="T12">
+        <v>174366</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="3"/>
+        <v>211531</v>
+      </c>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>366980</v>
+      </c>
+      <c r="G13">
+        <v>478257</v>
+      </c>
+      <c r="H13">
+        <v>392000</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>412412</v>
+      </c>
+      <c r="J13">
+        <v>405778</v>
+      </c>
+      <c r="K13">
+        <v>482865</v>
+      </c>
+      <c r="L13">
+        <v>421023</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>436555</v>
+      </c>
+      <c r="N13">
+        <v>391892</v>
+      </c>
+      <c r="O13">
+        <v>457811</v>
+      </c>
+      <c r="P13">
+        <v>394260</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="2"/>
+        <v>414654</v>
+      </c>
+      <c r="R13">
+        <v>389987</v>
+      </c>
+      <c r="S13">
+        <v>426951</v>
+      </c>
+      <c r="T13">
+        <v>365673</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="3"/>
+        <v>272313</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>1786</v>
+      </c>
+      <c r="G25">
+        <v>1838</v>
+      </c>
+      <c r="H25">
+        <v>1501</v>
+      </c>
+      <c r="I25">
+        <v>5358</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>10693</v>
+      </c>
+      <c r="G26">
+        <v>11950</v>
+      </c>
+      <c r="H26">
+        <v>9903</v>
+      </c>
+      <c r="I26">
+        <v>17147</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>24085</v>
+      </c>
+      <c r="G27">
+        <v>37689</v>
+      </c>
+      <c r="H27">
+        <v>40290</v>
+      </c>
+      <c r="I27">
+        <v>79698</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>116329</v>
+      </c>
+      <c r="G28">
+        <v>142311</v>
+      </c>
+      <c r="H28">
+        <v>109841</v>
+      </c>
+      <c r="I28">
+        <v>211531</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>412412</v>
+      </c>
+      <c r="G29">
+        <v>436555</v>
+      </c>
+      <c r="H29">
+        <v>414654</v>
+      </c>
+      <c r="I29">
+        <v>272313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B0732D-3A35-4EA3-9B6F-A0E0A11B6D49}">
+  <dimension ref="E17:V28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="17" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" t="s">
+        <v>23</v>
+      </c>
+      <c r="V17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>338501</v>
+      </c>
+      <c r="H18">
+        <v>395386</v>
+      </c>
+      <c r="I18">
+        <v>530223</v>
+      </c>
+      <c r="J18" s="2">
+        <f>ROUND( (G18+H18+I18)/3,0)</f>
+        <v>421370</v>
+      </c>
+      <c r="K18">
+        <v>343535</v>
+      </c>
+      <c r="L18">
+        <v>394928</v>
+      </c>
+      <c r="M18">
+        <v>620192</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" ref="N18:N20" si="0">ROUND((K18+L18+M18)/3,0)</f>
+        <v>452885</v>
+      </c>
+      <c r="O18">
+        <v>398290</v>
+      </c>
+      <c r="P18">
+        <v>363245</v>
+      </c>
+      <c r="Q18">
+        <v>558885</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" ref="R18:R20" si="1">ROUND((O18+P18+Q18)/3,0)</f>
+        <v>440140</v>
+      </c>
+      <c r="S18">
+        <v>353118</v>
+      </c>
+      <c r="T18">
+        <v>398330</v>
+      </c>
+      <c r="U18">
+        <v>625264</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" ref="V18:V20" si="2">ROUND((S18+T18+U19)/3,0)</f>
+        <v>444963</v>
+      </c>
+    </row>
+    <row r="19" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>560371</v>
+      </c>
+      <c r="H19">
+        <v>686040</v>
+      </c>
+      <c r="I19">
+        <v>617866</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" ref="J19:J20" si="3">ROUND( (G19+H19+I19)/3,0)</f>
+        <v>621426</v>
+      </c>
+      <c r="K19">
+        <v>627523</v>
+      </c>
+      <c r="L19">
+        <v>645551</v>
+      </c>
+      <c r="M19">
+        <v>594396</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="0"/>
+        <v>622490</v>
+      </c>
+      <c r="O19">
+        <v>652709</v>
+      </c>
+      <c r="P19">
+        <v>673842</v>
+      </c>
+      <c r="Q19">
+        <v>707524</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="1"/>
+        <v>678025</v>
+      </c>
+      <c r="S19">
+        <v>594919</v>
+      </c>
+      <c r="T19">
+        <v>740266</v>
+      </c>
+      <c r="U19">
+        <v>583442</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" si="2"/>
+        <v>860712</v>
+      </c>
+    </row>
+    <row r="20" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20">
+        <v>951316</v>
+      </c>
+      <c r="H20">
+        <v>964194</v>
+      </c>
+      <c r="I20">
+        <v>991910</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="3"/>
+        <v>969140</v>
+      </c>
+      <c r="K20">
+        <v>1153877</v>
+      </c>
+      <c r="L20">
+        <v>1062130</v>
+      </c>
+      <c r="M20">
+        <v>1193230</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="0"/>
+        <v>1136412</v>
+      </c>
+      <c r="O20">
+        <v>1225930</v>
+      </c>
+      <c r="P20">
+        <v>1100916</v>
+      </c>
+      <c r="Q20">
+        <v>1252973</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="1"/>
+        <v>1193273</v>
+      </c>
+      <c r="S20">
+        <v>1226892</v>
+      </c>
+      <c r="T20">
+        <v>1106600</v>
+      </c>
+      <c r="U20">
+        <v>1246950</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" si="2"/>
+        <v>777831</v>
+      </c>
+    </row>
+    <row r="25" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26">
+        <v>421370</v>
+      </c>
+      <c r="G26">
+        <v>452885</v>
+      </c>
+      <c r="H26">
+        <v>440140</v>
+      </c>
+      <c r="I26">
+        <v>444963</v>
+      </c>
+    </row>
+    <row r="27" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>621426</v>
+      </c>
+      <c r="G27">
+        <v>622490</v>
+      </c>
+      <c r="H27">
+        <v>678025</v>
+      </c>
+      <c r="I27">
+        <v>860712</v>
+      </c>
+    </row>
+    <row r="28" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28">
+        <v>969140</v>
+      </c>
+      <c r="G28">
+        <v>1136412</v>
+      </c>
+      <c r="H28">
+        <v>1193273</v>
+      </c>
+      <c r="I28">
+        <v>777831</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>